--- a/test_ホワイトボード/已完成/test_ホワイトボード_チラシ業者一覧.xlsx
+++ b/test_ホワイトボード/已完成/test_ホワイトボード_チラシ業者一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="792" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="13650" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="テストケース" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="442">
   <si>
     <t>SQL</t>
   </si>
@@ -1354,16 +1355,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1390,7 +1388,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1403,7 +1401,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1430,116 +1428,25 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1556,64 +1463,33 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1624,34 +1500,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,19 +1541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,7 +1565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,7 +1577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,164 +1587,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1901,294 +1620,58 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -2197,17 +1680,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2230,7 +1713,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2245,8 +1728,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2274,106 +1757,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="43">
+    <cellStyle name="Comma [0]" xfId="15"/>
+    <cellStyle name="Currency [0]" xfId="8"/>
+    <cellStyle name="Normal_Sheet1" xfId="17"/>
+    <cellStyle name="ハイパーリンク 2" xfId="18"/>
+    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="11"/>
+    <cellStyle name="標準 2 2" xfId="9"/>
+    <cellStyle name="標準 2 2 2" xfId="14"/>
+    <cellStyle name="標準 2 3" xfId="19"/>
+    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="10"/>
+    <cellStyle name="標準 26" xfId="6"/>
+    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 3 2" xfId="20"/>
+    <cellStyle name="標準 4" xfId="12"/>
+    <cellStyle name="標準 4 2" xfId="7"/>
+    <cellStyle name="標準 5" xfId="13"/>
+    <cellStyle name="標準_Sheet1" xfId="21"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="標準 3" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="標準 26" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="24" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
-    <cellStyle name="输出" xfId="28" builtinId="21"/>
-    <cellStyle name="计算" xfId="29" builtinId="22"/>
-    <cellStyle name="標準 4 2" xfId="30"/>
-    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
-    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
-    <cellStyle name="Currency [0]" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="34" builtinId="50"/>
-    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
-    <cellStyle name="汇总" xfId="36" builtinId="25"/>
-    <cellStyle name="好" xfId="37" builtinId="26"/>
-    <cellStyle name="標準 2 2" xfId="38"/>
-    <cellStyle name="适中" xfId="39" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="40" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="41" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="42" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="43" builtinId="31"/>
-    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="45" builtinId="34"/>
-    <cellStyle name="標準 2" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="47" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="48" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="49" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="50" builtinId="42"/>
-    <cellStyle name="標準 4" xfId="51"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="標準 5" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="標準 2 2 2" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="60" builtinId="52"/>
-    <cellStyle name="Comma [0]" xfId="61"/>
-    <cellStyle name="常规 2 4" xfId="62"/>
-    <cellStyle name="Normal_Sheet1" xfId="63"/>
-    <cellStyle name="ハイパーリンク 2" xfId="64"/>
-    <cellStyle name="標準 2 3" xfId="65"/>
-    <cellStyle name="標準 3 2" xfId="66"/>
-    <cellStyle name="標準_Sheet1" xfId="67"/>
-    <cellStyle name="常规 2" xfId="68"/>
-    <cellStyle name="常规 2 2" xfId="69"/>
-    <cellStyle name="常规 2 3" xfId="70"/>
-    <cellStyle name="常规 3" xfId="71"/>
-    <cellStyle name="常规 3 2" xfId="72"/>
-    <cellStyle name="常规 4" xfId="73"/>
-    <cellStyle name="常规 5" xfId="74"/>
-    <cellStyle name="常规 6 2" xfId="75"/>
-    <cellStyle name="常规 7" xfId="76"/>
-    <cellStyle name="常规 8" xfId="77"/>
-    <cellStyle name="常规 9" xfId="78"/>
-    <cellStyle name="超链接 2" xfId="79"/>
-    <cellStyle name="超链接 2 2" xfId="80"/>
-    <cellStyle name="超链接 3" xfId="81"/>
-    <cellStyle name="超链接 4" xfId="82"/>
-    <cellStyle name="超链接 4 2" xfId="83"/>
-    <cellStyle name="桁区切り 2" xfId="84"/>
-    <cellStyle name="桁区切り 2 2" xfId="85"/>
-    <cellStyle name="千位分隔 2" xfId="86"/>
-    <cellStyle name="千位分隔 3" xfId="87"/>
-    <cellStyle name="千位分隔 3 2" xfId="88"/>
+    <cellStyle name="常规 2" xfId="22"/>
+    <cellStyle name="常规 2 2" xfId="23"/>
+    <cellStyle name="常规 2 3" xfId="24"/>
+    <cellStyle name="常规 2 4" xfId="16"/>
+    <cellStyle name="常规 3" xfId="25"/>
+    <cellStyle name="常规 3 2" xfId="26"/>
+    <cellStyle name="常规 4" xfId="27"/>
+    <cellStyle name="常规 5" xfId="28"/>
+    <cellStyle name="常规 6" xfId="5"/>
+    <cellStyle name="常规 6 2" xfId="29"/>
+    <cellStyle name="常规 7" xfId="30"/>
+    <cellStyle name="常规 8" xfId="31"/>
+    <cellStyle name="常规 9" xfId="32"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="33"/>
+    <cellStyle name="超链接 2 2" xfId="34"/>
+    <cellStyle name="超链接 3" xfId="35"/>
+    <cellStyle name="超链接 4" xfId="36"/>
+    <cellStyle name="超链接 4 2" xfId="37"/>
+    <cellStyle name="桁区切り 2" xfId="38"/>
+    <cellStyle name="桁区切り 2 2" xfId="39"/>
+    <cellStyle name="千位分隔" xfId="3" builtinId="3"/>
+    <cellStyle name="千位分隔 2" xfId="40"/>
+    <cellStyle name="千位分隔 3" xfId="41"/>
+    <cellStyle name="千位分隔 3 2" xfId="42"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2404,146 +1841,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1543050</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2228850" y="2533650"/>
-              <a:ext cx="1543050" cy="180975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1543050</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Host Control  2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2228850" y="2895600"/>
-              <a:ext cx="1543050" cy="180975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1543050</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Host Control  3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2228850" y="3257550"/>
-              <a:ext cx="1543050" cy="180975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2825,16 +2122,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW140"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2842,7 +2139,7 @@
     <col min="3" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2851,7 +2148,7 @@
       </c>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:2">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -2883,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:2">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:2">
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="19" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="19" t="s">
         <v>0</v>
       </c>
@@ -2923,7 +2220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:2">
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="19" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:2">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:2">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="19" t="s">
         <v>0</v>
       </c>
@@ -2947,7 +2244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="19" t="s">
         <v>0</v>
       </c>
@@ -2955,11 +2252,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:2">
+    <row r="15" spans="1:3" ht="14.25">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
     </row>
-    <row r="16" ht="14.25" spans="1:2">
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="19" t="s">
         <v>0</v>
       </c>
@@ -2967,7 +2264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="19" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +2272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2" ht="14.25">
       <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +2280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:2">
+    <row r="19" spans="1:2" ht="14.25">
       <c r="A19" s="19" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +2288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2" ht="14.25">
       <c r="A20" s="19" t="s">
         <v>0</v>
       </c>
@@ -2999,7 +2296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:2">
+    <row r="21" spans="1:2" ht="14.25">
       <c r="A21" s="19" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +2304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" s="19" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +2312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2" ht="14.25">
       <c r="A23" s="19" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +2320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2" ht="14.25">
       <c r="A24" s="19" t="s">
         <v>0</v>
       </c>
@@ -3031,7 +2328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2" ht="14.25">
       <c r="A25" s="19" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +2336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2" ht="14.25">
       <c r="A26" s="19" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +2344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2" ht="14.25">
       <c r="A27" s="19" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +2352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2" ht="14.25">
       <c r="A28" s="19" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +2360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:2">
+    <row r="29" spans="1:2" ht="14.25">
       <c r="A29" s="19" t="s">
         <v>0</v>
       </c>
@@ -3071,7 +2368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:2">
+    <row r="30" spans="1:2" ht="14.25">
       <c r="A30" s="19" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +2376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2" ht="14.25">
       <c r="A31" s="19" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +2384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2" ht="14.25">
       <c r="A32" s="19" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +2392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="19" t="s">
         <v>0</v>
       </c>
@@ -3103,7 +2400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:2">
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
@@ -3111,7 +2408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="19" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +2416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="19" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +2424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:2">
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="19" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +2432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:2">
+    <row r="38" spans="1:4" ht="14.25">
       <c r="A38" s="19" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +2440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:2">
+    <row r="39" spans="1:4" ht="14.25">
       <c r="A39" s="19" t="s">
         <v>0</v>
       </c>
@@ -3151,7 +2448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:4" ht="14.25">
       <c r="A40" s="19" t="s">
         <v>0</v>
       </c>
@@ -3159,7 +2456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:2">
+    <row r="41" spans="1:4" ht="14.25">
       <c r="A41" s="19" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +2464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:2">
+    <row r="42" spans="1:4" ht="14.25">
       <c r="A42" s="19" t="s">
         <v>0</v>
       </c>
@@ -3175,11 +2472,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:2">
+    <row r="43" spans="1:4" ht="14.25">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
     </row>
-    <row r="44" ht="14.25" spans="1:2">
+    <row r="44" spans="1:4" ht="14.25">
       <c r="A44" s="19" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +2484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:2">
+    <row r="45" spans="1:4" ht="14.25">
       <c r="A45" s="19" t="s">
         <v>0</v>
       </c>
@@ -3195,15 +2492,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A46" s="19" t="s">
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:4" ht="14.25">
+      <c r="A46" s="19"/>
       <c r="B46" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:4">
+    <row r="47" spans="1:4" ht="14.25">
       <c r="A47" s="19" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +2508,7 @@
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:4">
+    <row r="48" spans="1:4" ht="14.25">
       <c r="A48" s="19" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +2518,7 @@
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:2">
+    <row r="49" spans="1:75" ht="14.25">
       <c r="A49" s="19" t="s">
         <v>0</v>
       </c>
@@ -3231,7 +2526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:4">
+    <row r="50" spans="1:75" ht="14.25">
       <c r="A50" s="19" t="s">
         <v>0</v>
       </c>
@@ -3240,7 +2535,7 @@
       </c>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:4">
+    <row r="51" spans="1:75" ht="14.25">
       <c r="A51" s="19" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +2545,7 @@
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:75">
+    <row r="52" spans="1:75" ht="14.25">
       <c r="A52" s="19" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +2626,7 @@
       <c r="BV52" s="20"/>
       <c r="BW52" s="20"/>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:4">
+    <row r="53" spans="1:75" ht="14.25">
       <c r="A53" s="19" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +2636,7 @@
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:8">
+    <row r="54" spans="1:75" ht="14.25">
       <c r="A54" s="19" t="s">
         <v>0</v>
       </c>
@@ -3355,7 +2650,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:2">
+    <row r="55" spans="1:75" ht="14.25">
       <c r="A55" s="19" t="s">
         <v>0</v>
       </c>
@@ -3363,11 +2658,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:2">
+    <row r="56" spans="1:75" ht="14.25">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:2">
+    <row r="57" spans="1:75" ht="14.25">
       <c r="A57" s="19" t="s">
         <v>54</v>
       </c>
@@ -3375,12 +2670,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="2:2">
+    <row r="58" spans="1:75">
       <c r="B58" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="2:19">
+    <row r="59" spans="1:75">
       <c r="B59" s="22" t="s">
         <v>57</v>
       </c>
@@ -3436,7 +2731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="2:19">
+    <row r="60" spans="1:75">
       <c r="B60" s="24">
         <v>1</v>
       </c>
@@ -3492,7 +2787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="2:19">
+    <row r="61" spans="1:75">
       <c r="B61" s="24">
         <v>2</v>
       </c>
@@ -3548,7 +2843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="2:19">
+    <row r="62" spans="1:75">
       <c r="B62" s="24">
         <v>3</v>
       </c>
@@ -3604,7 +2899,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="2:19">
+    <row r="63" spans="1:75">
       <c r="B63" s="24">
         <v>4</v>
       </c>
@@ -3660,7 +2955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="2:19">
+    <row r="64" spans="1:75">
       <c r="B64" s="24">
         <v>5</v>
       </c>
@@ -3716,7 +3011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" customFormat="1" spans="2:19">
+    <row r="65" spans="1:75">
       <c r="B65" s="24">
         <v>6</v>
       </c>
@@ -3772,7 +3067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="2:19">
+    <row r="66" spans="1:75">
       <c r="B66" s="24">
         <v>7</v>
       </c>
@@ -3828,7 +3123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:75">
+    <row r="68" spans="1:75" ht="14.25">
       <c r="A68" s="19" t="s">
         <v>54</v>
       </c>
@@ -4020,7 +3315,7 @@
       <c r="BV69" s="20"/>
       <c r="BW69" s="20"/>
     </row>
-    <row r="70" spans="1:74">
+    <row r="70" spans="1:75">
       <c r="A70" s="27"/>
       <c r="B70" s="23" t="s">
         <v>58</v>
@@ -4242,7 +3537,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:74">
+    <row r="71" spans="1:75">
       <c r="A71" s="20"/>
       <c r="B71" s="24" t="s">
         <v>75</v>
@@ -4462,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:74">
+    <row r="72" spans="1:75">
       <c r="A72" s="20"/>
       <c r="B72" s="24" t="s">
         <v>75</v>
@@ -4682,7 +3977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:74">
+    <row r="73" spans="1:75">
       <c r="A73" s="20"/>
       <c r="B73" s="24" t="s">
         <v>75</v>
@@ -4902,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:74">
+    <row r="74" spans="1:75">
       <c r="A74" s="20"/>
       <c r="B74" s="24" t="s">
         <v>75</v>
@@ -5122,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:74">
+    <row r="75" spans="1:75">
       <c r="A75" s="20"/>
       <c r="B75" s="24" t="s">
         <v>88</v>
@@ -5342,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:74">
+    <row r="76" spans="1:75">
       <c r="A76" s="20"/>
       <c r="B76" s="24" t="s">
         <v>88</v>
@@ -5562,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:74">
+    <row r="77" spans="1:75">
       <c r="A77" s="20"/>
       <c r="B77" s="24" t="s">
         <v>75</v>
@@ -5782,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" s="20" customFormat="1" ht="12" spans="2:74">
+    <row r="78" spans="1:75" s="20" customFormat="1" ht="12">
       <c r="B78" s="24" t="s">
         <v>75</v>
       </c>
@@ -6001,7 +5296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:74">
+    <row r="79" spans="1:75">
       <c r="A79" s="20"/>
       <c r="B79" s="24" t="s">
         <v>75</v>
@@ -6221,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:74">
+    <row r="80" spans="1:75">
       <c r="A80" s="20"/>
       <c r="B80" s="24" t="s">
         <v>75</v>
@@ -6441,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:74">
+    <row r="81" spans="1:74">
       <c r="A81" s="20"/>
       <c r="B81" s="24" t="s">
         <v>88</v>
@@ -6661,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" s="20" customFormat="1" ht="12" spans="2:74">
+    <row r="82" spans="1:74" s="20" customFormat="1" ht="12">
       <c r="B82" s="24" t="s">
         <v>88</v>
       </c>
@@ -6880,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:7">
+    <row r="84" spans="1:74" ht="14.25">
       <c r="A84" s="19" t="s">
         <v>54</v>
       </c>
@@ -6893,7 +6188,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:74">
       <c r="A85" s="20"/>
       <c r="B85" s="21" t="s">
         <v>218</v>
@@ -6910,7 +6205,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:74">
       <c r="A86" s="20"/>
       <c r="B86" s="23" t="s">
         <v>58</v>
@@ -6936,7 +6231,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:74">
       <c r="A87" s="20"/>
       <c r="B87" s="24" t="s">
         <v>75</v>
@@ -6960,7 +6255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="1:74">
       <c r="B88" s="24" t="s">
         <v>75</v>
       </c>
@@ -6983,7 +6278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="1:74">
       <c r="B89" s="24" t="s">
         <v>75</v>
       </c>
@@ -7006,7 +6301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:74">
       <c r="A90" s="11"/>
       <c r="B90" s="24" t="s">
         <v>75</v>
@@ -7030,7 +6325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="1:74">
       <c r="B91" s="24" t="s">
         <v>88</v>
       </c>
@@ -7055,7 +6350,7 @@
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:74">
       <c r="A92" s="20"/>
       <c r="B92" s="24" t="s">
         <v>75</v>
@@ -7085,7 +6380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:74">
       <c r="A93" s="20"/>
       <c r="B93" s="24" t="s">
         <v>75</v>
@@ -7112,7 +6407,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:74">
       <c r="A94" s="20"/>
       <c r="B94" s="24" t="s">
         <v>75</v>
@@ -7139,7 +6434,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:74">
       <c r="A95" s="20"/>
       <c r="B95" s="24" t="s">
         <v>75</v>
@@ -7166,7 +6461,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:74">
       <c r="A96" s="20"/>
       <c r="B96" s="24" t="s">
         <v>88</v>
@@ -7193,7 +6488,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
     </row>
-    <row r="98" spans="2:75">
+    <row r="98" spans="1:75">
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -7268,7 +6563,7 @@
       <c r="BV98" s="20"/>
       <c r="BW98" s="20"/>
     </row>
-    <row r="99" ht="14.25" spans="1:40">
+    <row r="99" spans="1:75" ht="14.25">
       <c r="A99" s="19" t="s">
         <v>54</v>
       </c>
@@ -7314,7 +6609,7 @@
       <c r="AM99" s="20"/>
       <c r="AN99" s="20"/>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:75">
       <c r="A100" s="11"/>
       <c r="B100" s="21" t="s">
         <v>238</v>
@@ -7351,7 +6646,7 @@
       <c r="AF100" s="11"/>
       <c r="AG100" s="11"/>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:75">
       <c r="A101" s="11"/>
       <c r="B101" s="22" t="s">
         <v>57</v>
@@ -7450,7 +6745,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:75">
       <c r="A102" s="11"/>
       <c r="B102" s="24" t="s">
         <v>173</v>
@@ -7549,7 +6844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:75">
       <c r="A103" s="11"/>
       <c r="B103" s="24" t="s">
         <v>179</v>
@@ -7648,7 +6943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:75">
       <c r="A104" s="11"/>
       <c r="B104" s="24" t="s">
         <v>186</v>
@@ -7747,7 +7042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:75">
       <c r="A105" s="11"/>
       <c r="B105" s="24" t="s">
         <v>193</v>
@@ -7846,7 +7141,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:75">
       <c r="A106" s="11"/>
       <c r="B106" s="24" t="s">
         <v>199</v>
@@ -7945,7 +7240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:75">
       <c r="A107" s="11"/>
       <c r="B107" s="24" t="s">
         <v>315</v>
@@ -8044,7 +7339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:75">
       <c r="A108" s="11"/>
       <c r="B108" s="24" t="s">
         <v>322</v>
@@ -8143,7 +7438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:75">
       <c r="A109" s="11"/>
       <c r="B109" s="24" t="s">
         <v>323</v>
@@ -8242,7 +7537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:75">
       <c r="A110" s="11"/>
       <c r="B110" s="24" t="s">
         <v>324</v>
@@ -8341,8 +7636,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" s="11" customFormat="1" ht="12"/>
-    <row r="115" ht="14.25" spans="1:2">
+    <row r="111" spans="1:75" s="11" customFormat="1" ht="12"/>
+    <row r="115" spans="1:17" ht="14.25">
       <c r="A115" s="19" t="s">
         <v>54</v>
       </c>
@@ -8350,13 +7645,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:17">
       <c r="A116" s="11"/>
       <c r="B116" s="21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="2:17">
+    <row r="117" spans="1:17">
       <c r="B117" s="22" t="s">
         <v>57</v>
       </c>
@@ -8406,15 +7701,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="118" spans="2:17">
+    <row r="118" spans="1:17">
       <c r="B118" s="24">
         <v>1</v>
       </c>
       <c r="C118" s="28">
-        <v>43130.2523148148</v>
+        <v>43130.252314814803</v>
       </c>
       <c r="D118" s="28">
-        <v>43130.2523148148</v>
+        <v>43130.252314814803</v>
       </c>
       <c r="E118" s="24">
         <v>0</v>
@@ -8426,7 +7721,7 @@
         <v>333</v>
       </c>
       <c r="H118" s="24">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I118" s="24">
         <v>2000</v>
@@ -8456,15 +7751,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="2:17">
+    <row r="119" spans="1:17">
       <c r="B119" s="24">
         <v>2</v>
       </c>
       <c r="C119" s="28">
-        <v>43130.2523148148</v>
+        <v>43130.252314814803</v>
       </c>
       <c r="D119" s="28">
-        <v>43243.2687384259</v>
+        <v>43243.268738425897</v>
       </c>
       <c r="E119" s="24">
         <v>0</v>
@@ -8506,12 +7801,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="2:17">
+    <row r="120" spans="1:17">
       <c r="B120" s="24">
         <v>3</v>
       </c>
       <c r="C120" s="28">
-        <v>43130.2523148148</v>
+        <v>43130.252314814803</v>
       </c>
       <c r="D120" s="28">
         <v>43243.2751041667</v>
@@ -8556,15 +7851,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="2:17">
+    <row r="121" spans="1:17">
       <c r="B121" s="24">
         <v>4</v>
       </c>
       <c r="C121" s="28">
-        <v>43130.2523148148</v>
+        <v>43130.252314814803</v>
       </c>
       <c r="D121" s="28">
-        <v>43130.2523148148</v>
+        <v>43130.252314814803</v>
       </c>
       <c r="E121" s="24">
         <v>0</v>
@@ -8606,15 +7901,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="2:17">
+    <row r="122" spans="1:17">
       <c r="B122" s="24">
         <v>5</v>
       </c>
       <c r="C122" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D122" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E122" s="24">
         <v>0</v>
@@ -8656,15 +7951,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="2:17">
+    <row r="123" spans="1:17">
       <c r="B123" s="24">
         <v>6</v>
       </c>
       <c r="C123" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D123" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E123" s="24">
         <v>0</v>
@@ -8706,15 +8001,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="2:17">
+    <row r="124" spans="1:17">
       <c r="B124" s="24">
         <v>7</v>
       </c>
       <c r="C124" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D124" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E124" s="24">
         <v>0</v>
@@ -8756,15 +8051,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="2:17">
+    <row r="125" spans="1:17">
       <c r="B125" s="24">
         <v>8</v>
       </c>
       <c r="C125" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D125" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E125" s="24">
         <v>0</v>
@@ -8806,15 +8101,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="2:17">
+    <row r="126" spans="1:17">
       <c r="B126" s="24">
         <v>9</v>
       </c>
       <c r="C126" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D126" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E126" s="24">
         <v>0</v>
@@ -8856,15 +8151,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="2:17">
+    <row r="127" spans="1:17">
       <c r="B127" s="24">
         <v>10</v>
       </c>
       <c r="C127" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D127" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E127" s="24">
         <v>0</v>
@@ -8906,15 +8201,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="2:17">
+    <row r="128" spans="1:17">
       <c r="B128" s="24">
         <v>11</v>
       </c>
       <c r="C128" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D128" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E128" s="24">
         <v>0</v>
@@ -8961,10 +8256,10 @@
         <v>12</v>
       </c>
       <c r="C129" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D129" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E129" s="24">
         <v>0</v>
@@ -9011,10 +8306,10 @@
         <v>13</v>
       </c>
       <c r="C130" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D130" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E130" s="24">
         <v>0</v>
@@ -9061,10 +8356,10 @@
         <v>14</v>
       </c>
       <c r="C131" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D131" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E131" s="24">
         <v>0</v>
@@ -9111,10 +8406,10 @@
         <v>15</v>
       </c>
       <c r="C132" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D132" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E132" s="24">
         <v>0</v>
@@ -9161,10 +8456,10 @@
         <v>16</v>
       </c>
       <c r="C133" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D133" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E133" s="24">
         <v>0</v>
@@ -9211,10 +8506,10 @@
         <v>17</v>
       </c>
       <c r="C134" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D134" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E134" s="24">
         <v>0</v>
@@ -9261,10 +8556,10 @@
         <v>18</v>
       </c>
       <c r="C135" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D135" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E135" s="24">
         <v>0</v>
@@ -9311,10 +8606,10 @@
         <v>19</v>
       </c>
       <c r="C136" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D136" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E136" s="24">
         <v>0</v>
@@ -9361,10 +8656,10 @@
         <v>20</v>
       </c>
       <c r="C137" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D137" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E137" s="24">
         <v>0</v>
@@ -9411,10 +8706,10 @@
         <v>21</v>
       </c>
       <c r="C138" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D138" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E138" s="24">
         <v>0</v>
@@ -9461,10 +8756,10 @@
         <v>22</v>
       </c>
       <c r="C139" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D139" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E139" s="24">
         <v>0</v>
@@ -9511,10 +8806,10 @@
         <v>23</v>
       </c>
       <c r="C140" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="D140" s="28">
-        <v>43130.2523263889</v>
+        <v>43130.252326388902</v>
       </c>
       <c r="E140" s="24">
         <v>0</v>
@@ -9557,27 +8852,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>359</v>
       </c>
@@ -9585,8 +8879,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>361</v>
       </c>
@@ -9600,7 +8893,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" customFormat="1" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>364</v>
       </c>
@@ -9610,7 +8903,7 @@
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:2">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>366</v>
       </c>
@@ -9618,7 +8911,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" customFormat="1" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>361</v>
       </c>
@@ -9632,7 +8925,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" customFormat="1" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>364</v>
       </c>
@@ -9642,7 +8935,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" customFormat="1" ht="17.25" customHeight="1" spans="1:2">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>366</v>
       </c>
@@ -9651,15 +8944,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9683,7 +8975,7 @@
     <col min="14" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:17" customFormat="1" ht="14.25">
       <c r="A2" s="19" t="s">
         <v>54</v>
       </c>
@@ -9691,13 +8983,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="13.5" spans="1:2">
+    <row r="3" spans="1:17" customFormat="1" ht="13.5">
       <c r="A3" s="11"/>
       <c r="B3" s="21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="13.5" spans="2:17">
+    <row r="4" spans="1:17" customFormat="1" ht="13.5">
       <c r="B4" s="22" t="s">
         <v>57</v>
       </c>
@@ -9747,7 +9039,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="13.5" spans="2:17">
+    <row r="5" spans="1:17" customFormat="1" ht="13.5">
       <c r="B5" s="24">
         <v>1</v>
       </c>
@@ -9767,7 +9059,7 @@
         <v>333</v>
       </c>
       <c r="H5" s="24">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I5" s="24">
         <v>2000</v>
@@ -9797,7 +9089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="13.5" spans="2:17">
+    <row r="6" spans="1:17" customFormat="1" ht="13.5">
       <c r="B6" s="24">
         <v>2</v>
       </c>
@@ -9847,7 +9139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="13.5" spans="2:17">
+    <row r="7" spans="1:17" customFormat="1" ht="13.5">
       <c r="B7" s="24">
         <v>3</v>
       </c>
@@ -9897,7 +9189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="13.5" spans="2:17">
+    <row r="8" spans="1:17" customFormat="1" ht="13.5">
       <c r="B8" s="24">
         <v>4</v>
       </c>
@@ -9947,7 +9239,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="13.5" spans="2:17">
+    <row r="9" spans="1:17" customFormat="1" ht="13.5">
       <c r="B9" s="24">
         <v>5</v>
       </c>
@@ -9997,7 +9289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="13.5" spans="2:17">
+    <row r="10" spans="1:17" customFormat="1" ht="13.5">
       <c r="B10" s="24">
         <v>6</v>
       </c>
@@ -10047,7 +9339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="2:17">
+    <row r="11" spans="1:17" customFormat="1" ht="13.5">
       <c r="B11" s="24">
         <v>7</v>
       </c>
@@ -10097,7 +9389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="13.5" spans="2:17">
+    <row r="12" spans="1:17" customFormat="1" ht="13.5">
       <c r="B12" s="24">
         <v>8</v>
       </c>
@@ -10147,7 +9439,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="13.5" spans="2:17">
+    <row r="13" spans="1:17" customFormat="1" ht="13.5">
       <c r="B13" s="24">
         <v>9</v>
       </c>
@@ -10197,7 +9489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="13.5" spans="2:17">
+    <row r="14" spans="1:17" customFormat="1" ht="13.5">
       <c r="B14" s="24">
         <v>10</v>
       </c>
@@ -10247,7 +9539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="13.5" spans="2:17">
+    <row r="15" spans="1:17" customFormat="1" ht="13.5">
       <c r="B15" s="24">
         <v>11</v>
       </c>
@@ -10297,7 +9589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="13.5" spans="2:17">
+    <row r="16" spans="1:17" customFormat="1" ht="13.5">
       <c r="B16" s="24">
         <v>12</v>
       </c>
@@ -10347,7 +9639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="13.5" spans="2:17">
+    <row r="17" spans="2:17" customFormat="1" ht="13.5">
       <c r="B17" s="24">
         <v>13</v>
       </c>
@@ -10397,7 +9689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="13.5" spans="2:17">
+    <row r="18" spans="2:17" customFormat="1" ht="13.5">
       <c r="B18" s="24">
         <v>14</v>
       </c>
@@ -10447,7 +9739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="13.5" spans="2:17">
+    <row r="19" spans="2:17" customFormat="1" ht="13.5">
       <c r="B19" s="24">
         <v>15</v>
       </c>
@@ -10497,7 +9789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="13.5" spans="2:17">
+    <row r="20" spans="2:17" customFormat="1" ht="13.5">
       <c r="B20" s="24">
         <v>16</v>
       </c>
@@ -10547,7 +9839,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="13.5" spans="2:17">
+    <row r="21" spans="2:17" customFormat="1" ht="13.5">
       <c r="B21" s="24">
         <v>17</v>
       </c>
@@ -10597,7 +9889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="13.5" spans="2:17">
+    <row r="22" spans="2:17" customFormat="1" ht="13.5">
       <c r="B22" s="24">
         <v>18</v>
       </c>
@@ -10647,7 +9939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="13.5" spans="2:17">
+    <row r="23" spans="2:17" customFormat="1" ht="13.5">
       <c r="B23" s="24">
         <v>19</v>
       </c>
@@ -10697,7 +9989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="13.5" spans="2:17">
+    <row r="24" spans="2:17" customFormat="1" ht="13.5">
       <c r="B24" s="24">
         <v>20</v>
       </c>
@@ -10747,7 +10039,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="13.5" spans="2:17">
+    <row r="25" spans="2:17" customFormat="1" ht="13.5">
       <c r="B25" s="24">
         <v>21</v>
       </c>
@@ -10797,7 +10089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="13.5" spans="2:17">
+    <row r="26" spans="2:17" customFormat="1" ht="13.5">
       <c r="B26" s="24">
         <v>22</v>
       </c>
@@ -10847,7 +10139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="13.5" spans="2:17">
+    <row r="27" spans="2:17" customFormat="1" ht="13.5">
       <c r="B27" s="24">
         <v>23</v>
       </c>
@@ -10897,33 +10189,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="13.5"/>
-    <row r="29" customFormat="1" ht="13.5"/>
-    <row r="30" customFormat="1" ht="13.5"/>
+    <row r="28" spans="2:17" customFormat="1" ht="13.5"/>
+    <row r="29" spans="2:17" customFormat="1" ht="13.5"/>
+    <row r="30" spans="2:17" customFormat="1" ht="13.5"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>359</v>
       </c>
@@ -10931,11 +10222,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="10" t="s">
         <v>364</v>
       </c>
@@ -10943,11 +10234,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="10" t="s">
         <v>361</v>
       </c>
@@ -10958,7 +10249,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="10" t="s">
         <v>361</v>
       </c>
@@ -10969,7 +10260,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:3">
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="10" t="s">
         <v>361</v>
       </c>
@@ -10980,7 +10271,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="10" t="s">
         <v>361</v>
       </c>
@@ -10991,7 +10282,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="10" t="s">
         <v>361</v>
       </c>
@@ -11002,7 +10293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:3">
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="10" t="s">
         <v>361</v>
       </c>
@@ -11013,7 +10304,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="10" t="s">
         <v>361</v>
       </c>
@@ -11024,7 +10315,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="10" t="s">
         <v>361</v>
       </c>
@@ -11035,7 +10326,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="10" t="s">
         <v>361</v>
       </c>
@@ -11046,7 +10337,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="10" t="s">
         <v>361</v>
       </c>
@@ -11057,7 +10348,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3" ht="14.25">
       <c r="A15" s="10" t="s">
         <v>361</v>
       </c>
@@ -11068,7 +10359,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:3">
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="10" t="s">
         <v>364</v>
       </c>
@@ -11077,7 +10368,7 @@
       </c>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:3">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="10" t="s">
         <v>361</v>
       </c>
@@ -11088,7 +10379,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:3">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="10" t="s">
         <v>361</v>
       </c>
@@ -11099,7 +10390,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:3">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="10" t="s">
         <v>361</v>
       </c>
@@ -11110,7 +10401,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:3">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="10" t="s">
         <v>361</v>
       </c>
@@ -11121,7 +10412,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:3">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="10" t="s">
         <v>364</v>
       </c>
@@ -11130,7 +10421,7 @@
       </c>
       <c r="C21" s="13"/>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="10" t="s">
         <v>366</v>
       </c>
@@ -11139,7 +10430,7 @@
       </c>
       <c r="C22" s="13"/>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="10" t="s">
         <v>359</v>
       </c>
@@ -11147,9 +10438,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" customFormat="1"/>
-    <row r="26" customFormat="1"/>
-    <row r="27" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="13.5" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>361</v>
       </c>
@@ -11163,7 +10452,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" customFormat="1" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="13.5" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>364</v>
       </c>
@@ -11173,7 +10462,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
     </row>
-    <row r="29" customFormat="1" ht="17.25" customHeight="1" spans="1:2">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>366</v>
       </c>
@@ -11181,7 +10470,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:2">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="10" t="s">
         <v>364</v>
       </c>
@@ -11189,7 +10478,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2" ht="14.25">
       <c r="A33" s="10" t="s">
         <v>366</v>
       </c>
@@ -11198,109 +10487,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId6" display="mht@shequchina.cn"/>
+    <hyperlink ref="C10" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1543050</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1543050</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId5">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1543050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>359</v>
       </c>
@@ -11308,12 +10518,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>361</v>
       </c>
@@ -11327,7 +10536,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" customFormat="1" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="13.5" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>364</v>
       </c>
@@ -11337,7 +10546,7 @@
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" customFormat="1" ht="17.25" customHeight="1" spans="1:2">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>366</v>
       </c>
@@ -11345,7 +10554,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="17.25" customHeight="1" spans="1:2">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>364</v>
       </c>
@@ -11353,7 +10562,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="10" t="s">
         <v>364</v>
       </c>
@@ -11361,11 +10570,11 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:3">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="10" t="s">
         <v>361</v>
       </c>
@@ -11376,7 +10585,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:3">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="10" t="s">
         <v>361</v>
       </c>
@@ -11387,7 +10596,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="10" t="s">
         <v>361</v>
       </c>
@@ -11398,7 +10607,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="10" t="s">
         <v>361</v>
       </c>
@@ -11409,7 +10618,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:3">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="10" t="s">
         <v>361</v>
       </c>
@@ -11420,7 +10629,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:3">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="10" t="s">
         <v>361</v>
       </c>
@@ -11431,7 +10640,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:3">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="10" t="s">
         <v>361</v>
       </c>
@@ -11442,7 +10651,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" ht="14.25">
       <c r="A17" s="10" t="s">
         <v>361</v>
       </c>
@@ -11453,7 +10662,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:3">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="10" t="s">
         <v>361</v>
       </c>
@@ -11464,7 +10673,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" s="10" t="s">
         <v>361</v>
       </c>
@@ -11475,7 +10684,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:3">
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" s="10" t="s">
         <v>361</v>
       </c>
@@ -11486,7 +10695,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:3">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" s="10" t="s">
         <v>361</v>
       </c>
@@ -11497,7 +10706,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="22" spans="1:3" ht="14.25">
       <c r="A22" s="10" t="s">
         <v>361</v>
       </c>
@@ -11508,7 +10717,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3" ht="14.25">
       <c r="A23" s="10" t="s">
         <v>361</v>
       </c>
@@ -11519,7 +10728,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:3">
+    <row r="24" spans="1:3" ht="14.25">
       <c r="A24" s="10" t="s">
         <v>361</v>
       </c>
@@ -11530,7 +10739,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:3">
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="10" t="s">
         <v>364</v>
       </c>
@@ -11539,7 +10748,7 @@
       </c>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3" ht="14.25">
       <c r="A26" s="10" t="s">
         <v>366</v>
       </c>
@@ -11548,15 +10757,15 @@
       </c>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:3">
+    <row r="27" spans="1:3" ht="14.25">
       <c r="A27" s="10"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:3">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" s="10"/>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:3">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="10" t="s">
         <v>364</v>
       </c>
@@ -11565,7 +10774,7 @@
       </c>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:2">
+    <row r="30" spans="1:3" ht="14.25">
       <c r="A30" s="10" t="s">
         <v>366</v>
       </c>
@@ -11574,21 +10783,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" display="mht@shequchina.cn"/>
+    <hyperlink ref="C15" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -11601,7 +10809,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:17">
       <c r="B4" s="4" t="s">
         <v>423</v>
       </c>
@@ -11624,7 +10832,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:17">
+    <row r="5" spans="2:17" s="1" customFormat="1">
       <c r="B5" s="9" t="s">
         <v>428</v>
       </c>
@@ -11646,7 +10854,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:17">
+    <row r="6" spans="2:17" s="1" customFormat="1">
       <c r="B6" s="9" t="s">
         <v>433</v>
       </c>
@@ -11665,7 +10873,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:17">
+    <row r="7" spans="2:17" s="1" customFormat="1">
       <c r="B7" s="9" t="s">
         <v>436</v>
       </c>
@@ -11679,30 +10887,24 @@
         <v>438</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:17">
+    <row r="8" spans="2:17" s="1" customFormat="1">
       <c r="B8" s="9" t="s">
         <v>439</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:17">
+    <row r="9" spans="2:17" s="1" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>440</v>
       </c>
@@ -11713,29 +10915,26 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:17">
+    <row r="10" spans="2:17" s="1" customFormat="1">
       <c r="B10" s="9" t="s">
         <v>441</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="19" spans="9:10">
+    <row r="19" spans="9:13">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="9:10">
+    <row r="20" spans="9:13">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="13:13">
+    <row r="21" spans="9:13">
       <c r="M21" s="1"/>
     </row>
     <row r="37" spans="9:13">
@@ -11746,8 +10945,8 @@
       <c r="M37" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>